--- a/output/rank_sp.xlsx
+++ b/output/rank_sp.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>City</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Guarulhos</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Osasco</t>
@@ -95,12 +98,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -118,13 +122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -136,6 +133,49 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,18 +197,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,30 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +230,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -227,28 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,7 +260,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,13 +275,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,169 +431,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +508,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,20 +545,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,166 +570,183 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -744,7 +754,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,7 +1106,7 @@
   <dimension ref="G3:O33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1103,6 +1119,12 @@
     <col min="7" max="7" width="20.6" customWidth="1"/>
     <col min="8" max="8" width="8.7" customWidth="1"/>
     <col min="9" max="9" width="4.8" customWidth="1"/>
+    <col min="10" max="10" width="5.3" customWidth="1"/>
+    <col min="11" max="11" width="4.8" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="6.8" customWidth="1"/>
+    <col min="14" max="14" width="9.2" customWidth="1"/>
+    <col min="15" max="15" width="4.8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="7:15">
@@ -1138,28 +1160,28 @@
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>2019</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <v>648</v>
       </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6">
         <v>648</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="6">
         <v>648</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="6">
         <v>648</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="6">
         <v>648</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="6">
         <v>648</v>
       </c>
     </row>
@@ -1167,840 +1189,840 @@
       <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>2020</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <v>648</v>
       </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="6">
         <v>648</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="6">
         <v>648</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="6">
         <v>648</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="6">
         <v>648</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="6">
         <v>648</v>
       </c>
     </row>
     <row r="6" spans="7:15">
       <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2019</v>
+      </c>
+      <c r="I6" s="6">
+        <v>647</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="2">
-        <v>2019</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="K6" s="6">
         <v>647</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="L6" s="6">
         <v>647</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="6">
         <v>647</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="6">
         <v>647</v>
       </c>
-      <c r="N6" s="4">
-        <v>647</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="O6" s="6">
         <v>647</v>
       </c>
     </row>
     <row r="7" spans="7:15">
       <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2020</v>
+      </c>
+      <c r="I7" s="6">
+        <v>647</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="K7" s="6">
         <v>647</v>
       </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="L7" s="6">
         <v>647</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="6">
         <v>647</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="6">
         <v>647</v>
       </c>
-      <c r="N7" s="4">
-        <v>647</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="O7" s="6">
         <v>647</v>
       </c>
     </row>
     <row r="8" spans="7:15">
       <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3">
         <v>2020</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="6">
         <v>646</v>
       </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="J8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6">
         <v>646</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="6">
         <v>646</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="6">
         <v>646</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="6">
         <v>646</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="6">
         <v>646</v>
       </c>
     </row>
     <row r="9" spans="7:15">
       <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="2">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3">
         <v>2019</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="6">
         <v>645.903225806452</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="7">
         <v>0.300537153518764</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="6">
         <v>645</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="6">
         <v>646</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="6">
         <v>646</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="6">
         <v>646</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="6">
         <v>646</v>
       </c>
     </row>
     <row r="10" spans="7:15">
       <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="2">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3">
         <v>2019</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="6">
         <v>645.096774193548</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="7">
         <v>0.300537153518764</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="6">
         <v>645</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="6">
         <v>645</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="6">
         <v>645</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="6">
         <v>645</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="6">
         <v>646</v>
       </c>
     </row>
     <row r="11" spans="7:15">
       <c r="G11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="2">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3">
         <v>2020</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="6">
         <v>645</v>
       </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="6">
         <v>645</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="6">
         <v>645</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="6">
         <v>645</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="6">
         <v>645</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="6">
         <v>645</v>
       </c>
     </row>
     <row r="12" spans="7:15">
       <c r="G12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="2">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3">
         <v>2019</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="6">
         <v>644</v>
       </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="J12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="6">
         <v>644</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="6">
         <v>644</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="6">
         <v>644</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="6">
         <v>644</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="6">
         <v>644</v>
       </c>
     </row>
     <row r="13" spans="7:15">
       <c r="G13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="2">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3">
         <v>2020</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="6">
         <v>644</v>
       </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="J13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="6">
         <v>644</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="6">
         <v>644</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="6">
         <v>644</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="6">
         <v>644</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="6">
         <v>644</v>
       </c>
     </row>
     <row r="14" spans="7:15">
       <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3">
         <v>2019</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="6">
         <v>643</v>
       </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="J14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="6">
         <v>643</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="6">
         <v>643</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="6">
         <v>643</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="6">
         <v>643</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="6">
         <v>643</v>
       </c>
     </row>
     <row r="15" spans="7:15">
       <c r="G15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="2">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3">
         <v>2020</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="6">
         <v>643</v>
       </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="J15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="6">
         <v>643</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="6">
         <v>643</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="6">
         <v>643</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="6">
         <v>643</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="6">
         <v>643</v>
       </c>
     </row>
     <row r="16" spans="7:15">
       <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="2">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3">
         <v>2019</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="6">
         <v>641.806451612903</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="7">
         <v>0.401609664451249</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="6">
         <v>641</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="6">
         <v>642</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="6">
         <v>642</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="6">
         <v>642</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="6">
         <v>642</v>
       </c>
     </row>
     <row r="17" spans="7:15">
       <c r="G17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="2">
+        <v>17</v>
+      </c>
+      <c r="H17" s="3">
         <v>2020</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="6">
         <v>641.5</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="7">
         <v>1.52564288314682</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="6">
         <v>637</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="6">
         <v>642</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="6">
         <v>642</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="6">
         <v>642</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="6">
         <v>642</v>
       </c>
     </row>
     <row r="18" spans="7:15">
       <c r="G18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="2">
+        <v>18</v>
+      </c>
+      <c r="H18" s="3">
         <v>2019</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="6">
         <v>640.967741935484</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="7">
         <v>0.481931597341499</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="6">
         <v>640</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="6">
         <v>641</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="6">
         <v>641</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="6">
         <v>641</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="6">
         <v>642</v>
       </c>
     </row>
     <row r="19" spans="7:15">
       <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3">
         <v>2020</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="6">
         <v>640.9</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="7">
         <v>0.402577899936449</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="6">
         <v>639</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="6">
         <v>641</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="6">
         <v>641</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="6">
         <v>641</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="6">
         <v>641</v>
       </c>
     </row>
     <row r="20" spans="7:15">
       <c r="G20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="2">
+        <v>18</v>
+      </c>
+      <c r="H20" s="3">
         <v>2020</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="6">
         <v>640.2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="7">
         <v>0.610257153258729</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="6">
         <v>640</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="6">
         <v>640</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="6">
         <v>640</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="6">
         <v>640</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="6">
         <v>642</v>
       </c>
     </row>
     <row r="21" spans="7:15">
       <c r="G21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="2">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3">
         <v>2019</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="6">
         <v>639.677419354839</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="7">
         <v>0.652538467534982</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="6">
         <v>638</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="6">
         <v>640</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="6">
         <v>640</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="6">
         <v>640</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="6">
         <v>640</v>
       </c>
     </row>
     <row r="22" spans="7:15">
       <c r="G22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="2">
+        <v>19</v>
+      </c>
+      <c r="H22" s="3">
         <v>2020</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="6">
         <v>639.166666666667</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="7">
         <v>0.530668630505232</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="6">
         <v>639</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="6">
         <v>639</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="6">
         <v>639</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="6">
         <v>639</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="6">
         <v>641</v>
       </c>
     </row>
     <row r="23" spans="7:15">
       <c r="G23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="2">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3">
         <v>2019</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="6">
         <v>638.709677419355</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="7">
         <v>0.824360292877525</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="6">
         <v>636</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="6">
         <v>639</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="6">
         <v>639</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="6">
         <v>639</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="6">
         <v>640</v>
       </c>
     </row>
     <row r="24" spans="7:15">
       <c r="G24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="2">
+        <v>21</v>
+      </c>
+      <c r="H24" s="3">
         <v>2019</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="6">
         <v>638.193548387097</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="7">
         <v>0.542792461180126</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="6">
         <v>638</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="6">
         <v>638</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="6">
         <v>638</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="6">
         <v>638</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="6">
         <v>640</v>
       </c>
     </row>
     <row r="25" spans="7:15">
       <c r="G25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="2">
+        <v>21</v>
+      </c>
+      <c r="H25" s="3">
         <v>2020</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="6">
         <v>638</v>
       </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
+      <c r="J25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="6">
         <v>638</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="6">
         <v>638</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="6">
         <v>638</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="6">
         <v>638</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="6">
         <v>638</v>
       </c>
     </row>
     <row r="26" spans="7:15">
       <c r="G26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="2">
+        <v>17</v>
+      </c>
+      <c r="H26" s="3">
         <v>2019</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="6">
         <v>637.58064516129</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="7">
         <v>1.64872058575505</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="6">
         <v>636</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="6">
         <v>637</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="6">
         <v>637</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="6">
         <v>637</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="6">
         <v>642</v>
       </c>
     </row>
     <row r="27" spans="7:15">
       <c r="G27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="2">
+        <v>20</v>
+      </c>
+      <c r="H27" s="3">
         <v>2020</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="6">
         <v>637.233333333333</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="7">
         <v>0.727932041794606</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="6">
         <v>637</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="6">
         <v>637</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="6">
         <v>637</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="6">
         <v>637</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="6">
         <v>640</v>
       </c>
     </row>
     <row r="28" spans="7:15">
       <c r="G28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="2">
+        <v>22</v>
+      </c>
+      <c r="H28" s="3">
         <v>2020</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="6">
         <v>635.933333333333</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="7">
         <v>0.253708131702462</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="6">
         <v>635</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="6">
         <v>636</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="6">
         <v>636</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="6">
         <v>636</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="6">
         <v>636</v>
       </c>
     </row>
     <row r="29" spans="7:15">
       <c r="G29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="2">
+        <v>23</v>
+      </c>
+      <c r="H29" s="3">
         <v>2019</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="6">
         <v>635.806451612903</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="7">
         <v>0.654184216599049</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="6">
         <v>634</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="6">
         <v>636</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="6">
         <v>636</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="6">
         <v>636</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="6">
         <v>637</v>
       </c>
     </row>
     <row r="30" spans="7:15">
       <c r="G30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="2">
+        <v>22</v>
+      </c>
+      <c r="H30" s="3">
         <v>2019</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="6">
         <v>635.161290322581</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="7">
         <v>0.454369467397652</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="6">
         <v>635</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="6">
         <v>635</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="6">
         <v>635</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="6">
         <v>635</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="6">
         <v>637</v>
       </c>
     </row>
     <row r="31" spans="7:15">
       <c r="G31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="2">
+        <v>23</v>
+      </c>
+      <c r="H31" s="3">
         <v>2020</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="6">
         <v>635.05</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="7">
         <v>0.273861278752583</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="6">
         <v>634.5</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="6">
         <v>635</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="6">
         <v>635</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="6">
         <v>635</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="6">
         <v>636</v>
       </c>
     </row>
     <row r="32" spans="7:15">
       <c r="G32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="2">
+        <v>24</v>
+      </c>
+      <c r="H32" s="3">
         <v>2019</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="6">
         <v>634.096774193548</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="7">
         <v>0.300537153518764</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="6">
         <v>634</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="6">
         <v>634</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="6">
         <v>634</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="6">
         <v>634</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="6">
         <v>635</v>
       </c>
     </row>
     <row r="33" spans="7:15">
-      <c r="G33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="G33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="5">
         <v>2020</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="8">
         <v>634.016666666667</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="9">
         <v>0.0912870929175277</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="8">
         <v>634</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="8">
         <v>634</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="8">
         <v>634</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="8">
         <v>634</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="8">
         <v>634.5</v>
       </c>
     </row>
